--- a/data/trans_orig/P57B2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>277633</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>251963</v>
+        <v>251110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301316</v>
+        <v>302426</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5060417404268764</v>
+        <v>0.5060417404268766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4592529284723138</v>
+        <v>0.457698898398827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5492087452365172</v>
+        <v>0.5512327662313149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -762,19 +762,19 @@
         <v>244046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223913</v>
+        <v>224459</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>263756</v>
+        <v>262940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5003784458208067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.459099168533863</v>
+        <v>0.4602176340207303</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5407904873781294</v>
+        <v>0.5391166707767594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>592</v>
@@ -783,19 +783,19 @@
         <v>521678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>487621</v>
+        <v>491038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>555802</v>
+        <v>556184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5033765253373</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4705140593228112</v>
+        <v>0.4738110494363068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5363031042686304</v>
+        <v>0.5366715764006994</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>207655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>186836</v>
+        <v>184913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>233855</v>
+        <v>233038</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3784940438888693</v>
+        <v>0.3784940438888694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3405460770408947</v>
+        <v>0.337042166203129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4262488603362703</v>
+        <v>0.4247589200115229</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>278</v>
@@ -833,19 +833,19 @@
         <v>188202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169520</v>
+        <v>170945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206644</v>
+        <v>207526</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3858781198852299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3475752351302145</v>
+        <v>0.3504955757466802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4236906920993141</v>
+        <v>0.4254999736391461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>498</v>
@@ -854,19 +854,19 @@
         <v>395857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>365922</v>
+        <v>364824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>428004</v>
+        <v>427614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3819690795592699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3530841644569492</v>
+        <v>0.3520252832597272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4129884635230179</v>
+        <v>0.412611822549462</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>53466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40439</v>
+        <v>40038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69520</v>
+        <v>68559</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09745324784202017</v>
+        <v>0.09745324784202018</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07370743690289057</v>
+        <v>0.07297771050703689</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1267143082151222</v>
+        <v>0.1249618440666633</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -904,19 +904,19 @@
         <v>45552</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34996</v>
+        <v>34972</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58477</v>
+        <v>59046</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09339746386626832</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0717533030358312</v>
+        <v>0.07170423910807965</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1198980327621782</v>
+        <v>0.1210644966309752</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>125</v>
@@ -925,19 +925,19 @@
         <v>99018</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84108</v>
+        <v>81360</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119522</v>
+        <v>118993</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09554454674060636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08115739631880999</v>
+        <v>0.07850572764519696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1153291133784297</v>
+        <v>0.1148184654213744</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>9881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4419</v>
+        <v>4868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19787</v>
+        <v>20832</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01801096784223389</v>
+        <v>0.0180109678422339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008054012495845569</v>
+        <v>0.008873444914858747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03606630882160118</v>
+        <v>0.03797029103713233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -975,19 +975,19 @@
         <v>9923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5591</v>
+        <v>5533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17391</v>
+        <v>17190</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02034597042769503</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0114633582062638</v>
+        <v>0.01134477692804388</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0356574176847303</v>
+        <v>0.03524581548851491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -996,19 +996,19 @@
         <v>19805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12488</v>
+        <v>12940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30207</v>
+        <v>31659</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01910984836282364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01205002337104035</v>
+        <v>0.01248595555047716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02914735515936856</v>
+        <v>0.03054797889226774</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>249330</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>228553</v>
+        <v>224781</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>271984</v>
+        <v>271172</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5166267382390918</v>
+        <v>0.5166267382390917</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4735757926652731</v>
+        <v>0.4657602029608641</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5635681831429358</v>
+        <v>0.5618845554176763</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>242</v>
@@ -1121,19 +1121,19 @@
         <v>187866</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170465</v>
+        <v>171850</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>204807</v>
+        <v>206787</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4439771434589733</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4028555068689275</v>
+        <v>0.4061269876209518</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4840139480536701</v>
+        <v>0.4886926443322283</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>469</v>
@@ -1142,19 +1142,19 @@
         <v>437195</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>408980</v>
+        <v>409675</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>468181</v>
+        <v>466266</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.482686867861129</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4515364319508523</v>
+        <v>0.4523033195070692</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5168968458457068</v>
+        <v>0.5147832634083848</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>177383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156799</v>
+        <v>157235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199154</v>
+        <v>201219</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3675482227064774</v>
+        <v>0.3675482227064773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.324897290734527</v>
+        <v>0.325799674664184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4126597164425496</v>
+        <v>0.4169383118216885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>262</v>
@@ -1192,19 +1192,19 @@
         <v>176997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160473</v>
+        <v>159435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195670</v>
+        <v>193817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4182901309666777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3792412713731677</v>
+        <v>0.376788111958287</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4624207679110276</v>
+        <v>0.4580402979089261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>454</v>
@@ -1213,19 +1213,19 @@
         <v>354379</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>328638</v>
+        <v>329340</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>383778</v>
+        <v>382483</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3912534311703926</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3628342804870635</v>
+        <v>0.3636093955810607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4237112903725332</v>
+        <v>0.4222818537853529</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>49205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36324</v>
+        <v>37169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63041</v>
+        <v>64814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1019562308113369</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07526499773982076</v>
+        <v>0.07701596548835055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.130625066352021</v>
+        <v>0.1342991206011349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>77</v>
@@ -1263,19 +1263,19 @@
         <v>52553</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41112</v>
+        <v>41441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65530</v>
+        <v>65189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.124195882447302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09715958326577823</v>
+        <v>0.09793708816905172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1548638221575597</v>
+        <v>0.1540585531317396</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>130</v>
@@ -1284,19 +1284,19 @@
         <v>101758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85531</v>
+        <v>84704</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120092</v>
+        <v>120006</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.112345977596026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09443098029240141</v>
+        <v>0.09351774369588112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1325875937446114</v>
+        <v>0.132493298445928</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>6693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2996</v>
+        <v>3011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13381</v>
+        <v>12605</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01386880824309413</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00620761039460537</v>
+        <v>0.006238517911322248</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02772692157353602</v>
+        <v>0.02611788495020105</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1334,19 +1334,19 @@
         <v>5728</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2595</v>
+        <v>2968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10640</v>
+        <v>10584</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01353684312704688</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006131768315181547</v>
+        <v>0.007014608302011353</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02514483208974827</v>
+        <v>0.02501192624660104</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1355,19 +1355,19 @@
         <v>12421</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7392</v>
+        <v>7348</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19824</v>
+        <v>20496</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0137137233724524</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008161411951686069</v>
+        <v>0.008112850917206994</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02188669966563043</v>
+        <v>0.02262863165291731</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>239285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216778</v>
+        <v>216761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>260015</v>
+        <v>261857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5081371097735177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4603421678189132</v>
+        <v>0.4603056675326488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5521569530131522</v>
+        <v>0.5560697984281502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -1480,19 +1480,19 @@
         <v>86869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76016</v>
+        <v>75254</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98481</v>
+        <v>98937</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.464717902685268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4066592337404871</v>
+        <v>0.4025799390474292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5268352242724411</v>
+        <v>0.5292761228553647</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>348</v>
@@ -1501,19 +1501,19 @@
         <v>326155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302393</v>
+        <v>300729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353354</v>
+        <v>348279</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4957992450261676</v>
+        <v>0.4957992450261677</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4596783845795666</v>
+        <v>0.4571496168314414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.537146785376332</v>
+        <v>0.5294317184150211</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>176497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>157021</v>
+        <v>155745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>197886</v>
+        <v>197413</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3748023553248199</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3334445297916583</v>
+        <v>0.3307348226281789</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.420222840560507</v>
+        <v>0.4192193947047264</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>106</v>
@@ -1551,19 +1551,19 @@
         <v>67166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>57416</v>
+        <v>56516</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>78718</v>
+        <v>78168</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3593131299158908</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3071530274366302</v>
+        <v>0.3023396069557961</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4211142702606123</v>
+        <v>0.4181677798206372</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>301</v>
@@ -1572,19 +1572,19 @@
         <v>243663</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>219365</v>
+        <v>223317</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>266551</v>
+        <v>270079</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3704009859550807</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3334642112706596</v>
+        <v>0.3394718778145311</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4051933225192828</v>
+        <v>0.4105573416366418</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>44366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32961</v>
+        <v>33727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58050</v>
+        <v>57325</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09421351322295968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06999396287056006</v>
+        <v>0.07162069731236394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1232721964288724</v>
+        <v>0.1217321262470908</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1622,19 +1622,19 @@
         <v>29182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22097</v>
+        <v>22684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38151</v>
+        <v>37818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1561115945534176</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1182120025763539</v>
+        <v>0.1213500167503309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2040924130573558</v>
+        <v>0.2023145683454468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -1643,19 +1643,19 @@
         <v>73548</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59985</v>
+        <v>60036</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88468</v>
+        <v>87534</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1118022765097571</v>
+        <v>0.111802276509757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09118568057594431</v>
+        <v>0.09126254418405258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1344835643011887</v>
+        <v>0.1330638759001082</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>10759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5596</v>
+        <v>6000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18421</v>
+        <v>17526</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02284702167870285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01188268946219335</v>
+        <v>0.01274107453556312</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03911709643246042</v>
+        <v>0.03721707703117003</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1693,19 +1693,19 @@
         <v>3712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7863</v>
+        <v>7930</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01985737284542358</v>
+        <v>0.01985737284542357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008340999109695964</v>
+        <v>0.008332159983295142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04206451855856857</v>
+        <v>0.04242486446878394</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1714,19 +1714,19 @@
         <v>14471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8404</v>
+        <v>9384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21509</v>
+        <v>23204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02199749250899458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01277496383547139</v>
+        <v>0.01426536864155938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03269643340719949</v>
+        <v>0.03527340990938024</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>532315</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>495836</v>
+        <v>498753</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>569775</v>
+        <v>571192</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4731063832653538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4406846929695426</v>
+        <v>0.4432775767825837</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5064000105698296</v>
+        <v>0.5076597753295794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>466</v>
@@ -1839,19 +1839,19 @@
         <v>370790</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>347167</v>
+        <v>345657</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>397565</v>
+        <v>397361</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4315550440758263</v>
+        <v>0.4315550440758262</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.404060252060461</v>
+        <v>0.402303568095577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4627182157840595</v>
+        <v>0.4624807850201139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>929</v>
@@ -1860,19 +1860,19 @@
         <v>903105</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>863359</v>
+        <v>856838</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>949816</v>
+        <v>947138</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4551151844830111</v>
+        <v>0.4551151844830112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4350855581942183</v>
+        <v>0.4317992996171871</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.478654997006464</v>
+        <v>0.4773057013173022</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>407764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>374331</v>
+        <v>374180</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>443934</v>
+        <v>440366</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3624090942454799</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3326949173862914</v>
+        <v>0.332560918481983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3945559054695971</v>
+        <v>0.3913847023756502</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>512</v>
@@ -1910,19 +1910,19 @@
         <v>342582</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>318777</v>
+        <v>317973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>368384</v>
+        <v>368856</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3987243031799113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3710184154678894</v>
+        <v>0.3700829957184693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4287543663911733</v>
+        <v>0.4293046253729332</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>940</v>
@@ -1931,19 +1931,19 @@
         <v>750346</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>709952</v>
+        <v>708640</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>790751</v>
+        <v>795030</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3781331155527481</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3577767713801747</v>
+        <v>0.3571155253540964</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3984952424736278</v>
+        <v>0.40065156167219</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>161775</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>139599</v>
+        <v>139292</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>185458</v>
+        <v>183273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1437813851788591</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.124072093820788</v>
+        <v>0.1237988146253987</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.164830114199132</v>
+        <v>0.1628881937349429</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>224</v>
@@ -1981,19 +1981,19 @@
         <v>130526</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>113146</v>
+        <v>113216</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>148207</v>
+        <v>146838</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1519168763785189</v>
+        <v>0.151916876378519</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1316881889478336</v>
+        <v>0.1317697504052347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1724948735585085</v>
+        <v>0.1709018425505435</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>418</v>
@@ -2002,19 +2002,19 @@
         <v>292302</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>266360</v>
+        <v>266451</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>322166</v>
+        <v>322891</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1473039488848676</v>
+        <v>0.1473039488848677</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1342309582185396</v>
+        <v>0.1342764760741193</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1623542172790663</v>
+        <v>0.1627194995625881</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>23294</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14503</v>
+        <v>14737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37084</v>
+        <v>37574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02070313731030722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01288998719296516</v>
+        <v>0.01309794305114122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03295908831741192</v>
+        <v>0.03339460232072627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2052,19 +2052,19 @@
         <v>15297</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9953</v>
+        <v>10090</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22801</v>
+        <v>22072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01780377636574348</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01158437358538282</v>
+        <v>0.01174351878356117</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02653799024292334</v>
+        <v>0.02568917511651772</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2073,19 +2073,19 @@
         <v>38591</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27793</v>
+        <v>28160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54391</v>
+        <v>52753</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01944775107937308</v>
+        <v>0.01944775107937309</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01400611489059203</v>
+        <v>0.01419101388474131</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0274101388207982</v>
+        <v>0.02658450428705066</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>224701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>196356</v>
+        <v>199244</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>250619</v>
+        <v>250421</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3981039164951558</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.347884894838089</v>
+        <v>0.3530019340454716</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4440240460780466</v>
+        <v>0.4436721248663155</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>395</v>
@@ -2198,19 +2198,19 @@
         <v>285889</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>261493</v>
+        <v>263084</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>308443</v>
+        <v>307887</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3448545107589362</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3154264300912953</v>
+        <v>0.3173464363713906</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3720608182373221</v>
+        <v>0.3713902328407131</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>592</v>
@@ -2219,19 +2219,19 @@
         <v>510589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>477706</v>
+        <v>477978</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>545743</v>
+        <v>545272</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3664237245480099</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3428246890741247</v>
+        <v>0.343019797959586</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3916516184457319</v>
+        <v>0.3913138140582799</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>214650</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189923</v>
+        <v>187406</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241994</v>
+        <v>240526</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3802965707794244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3364874513471839</v>
+        <v>0.3320293934647396</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4287431796710823</v>
+        <v>0.4261416108441159</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>535</v>
@@ -2269,19 +2269,19 @@
         <v>339270</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>316042</v>
+        <v>318193</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>364501</v>
+        <v>362574</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4092452942558754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3812267530218927</v>
+        <v>0.3838217340829908</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4396807211904723</v>
+        <v>0.4373556535274988</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>741</v>
@@ -2290,19 +2290,19 @@
         <v>553919</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>522214</v>
+        <v>518312</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>587302</v>
+        <v>586362</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3975193191590371</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.374766101042707</v>
+        <v>0.3719656015545595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4214763412629571</v>
+        <v>0.4208018933224275</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>100919</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>82737</v>
+        <v>83453</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121041</v>
+        <v>119461</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1787998229947859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1465858246587684</v>
+        <v>0.1478551058500585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2144490527228339</v>
+        <v>0.2116501482479115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>306</v>
@@ -2340,19 +2340,19 @@
         <v>176521</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>157070</v>
+        <v>158194</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>195143</v>
+        <v>196800</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2129294236801978</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1894666593016623</v>
+        <v>0.1908221206519248</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2353916616780269</v>
+        <v>0.2373901661958032</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>420</v>
@@ -2361,19 +2361,19 @@
         <v>277441</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>250831</v>
+        <v>251988</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>302625</v>
+        <v>305550</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1991048815366477</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1800085300863055</v>
+        <v>0.1808388002459196</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.217178073260728</v>
+        <v>0.2192771158828757</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>24157</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15630</v>
+        <v>15870</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>35732</v>
+        <v>35851</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04279968973063382</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02769111713983787</v>
+        <v>0.0281169348703611</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06330639974669711</v>
+        <v>0.06351732825669838</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>51</v>
@@ -2411,19 +2411,19 @@
         <v>27333</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>19703</v>
+        <v>20459</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34983</v>
+        <v>36718</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03297077130499056</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02376680255263482</v>
+        <v>0.02467850810323949</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04219873088202571</v>
+        <v>0.0442915849268104</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>78</v>
@@ -2432,19 +2432,19 @@
         <v>51490</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>40093</v>
+        <v>40556</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>64136</v>
+        <v>65590</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03695207475630521</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02877295088404497</v>
+        <v>0.02910483203519728</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04602730257099141</v>
+        <v>0.04707027984187329</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>167160</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>146199</v>
+        <v>145981</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>186282</v>
+        <v>186717</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7046382406691666</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6162821718510846</v>
+        <v>0.6153610333726348</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7852437970575927</v>
+        <v>0.7870771379531613</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>409</v>
@@ -2557,19 +2557,19 @@
         <v>357962</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>330821</v>
+        <v>328995</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>387946</v>
+        <v>387216</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.426920084456894</v>
+        <v>0.4269200844568942</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3945513198262845</v>
+        <v>0.3923732698161999</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4626805283679021</v>
+        <v>0.4618096232063307</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>480</v>
@@ -2578,19 +2578,19 @@
         <v>525122</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>486776</v>
+        <v>483473</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>564173</v>
+        <v>563468</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4881660281890908</v>
+        <v>0.4881660281890909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4525191127371581</v>
+        <v>0.4494485312285898</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5244688250399032</v>
+        <v>0.5238140748347917</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>62411</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43731</v>
+        <v>44446</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84008</v>
+        <v>84653</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2630857481920313</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1843402338284434</v>
+        <v>0.1873576968832562</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3541226726228731</v>
+        <v>0.3568413371225457</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>473</v>
@@ -2628,19 +2628,19 @@
         <v>322395</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>295023</v>
+        <v>296454</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>348848</v>
+        <v>350437</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3845017937744361</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3518566531993945</v>
+        <v>0.3535630011622171</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4160502438682465</v>
+        <v>0.4179458532701355</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>505</v>
@@ -2649,19 +2649,19 @@
         <v>384806</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>348122</v>
+        <v>348615</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>418249</v>
+        <v>421766</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.35772558152621</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3236224352318749</v>
+        <v>0.3240806956242429</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3888146390345636</v>
+        <v>0.3920843801958286</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>5795</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2290</v>
+        <v>2266</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12823</v>
+        <v>12055</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02442909517395403</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009654164492957492</v>
+        <v>0.009553438968496862</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05405399269627512</v>
+        <v>0.0508162450596402</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>234</v>
@@ -2699,19 +2699,19 @@
         <v>138082</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>120525</v>
+        <v>120538</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156321</v>
+        <v>156605</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1646820732301295</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1437427698802735</v>
+        <v>0.1437590529117249</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1864348558316104</v>
+        <v>0.1867736172604569</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>241</v>
@@ -2720,19 +2720,19 @@
         <v>143877</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>125115</v>
+        <v>124883</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>164711</v>
+        <v>164041</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1337517007998304</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.116309733119743</v>
+        <v>0.1160946570865841</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1531194797610877</v>
+        <v>0.1524970005733634</v>
       </c>
     </row>
     <row r="32">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7060</v>
+        <v>6679</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.00784691596484798</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.029758494318607</v>
+        <v>0.02815609683003177</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -2770,19 +2770,19 @@
         <v>20036</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13776</v>
+        <v>14392</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28328</v>
+        <v>28391</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02389604853854036</v>
+        <v>0.02389604853854037</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01642945710776913</v>
+        <v>0.01716472710347121</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03378465638412299</v>
+        <v>0.03386030499921167</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -2791,19 +2791,19 @@
         <v>21898</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14634</v>
+        <v>14960</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30518</v>
+        <v>31582</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02035668948486861</v>
+        <v>0.02035668948486862</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01360411122852206</v>
+        <v>0.01390760433265821</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0283700146468716</v>
+        <v>0.02935940926714123</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>1690422</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1623243</v>
+        <v>1629711</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1752324</v>
+        <v>1758490</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4929845832270566</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.47339270818527</v>
+        <v>0.4752791098219775</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5110372789887451</v>
+        <v>0.5128353344545284</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1962</v>
@@ -2916,19 +2916,19 @@
         <v>1533421</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1477373</v>
+        <v>1475881</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1591075</v>
+        <v>1584501</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4230738203891138</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4076099228302094</v>
+        <v>0.4071983625469393</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4389806027518847</v>
+        <v>0.4371667680199384</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3410</v>
@@ -2937,19 +2937,19 @@
         <v>3223844</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3139749</v>
+        <v>3134934</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3314099</v>
+        <v>3309062</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.4570602377586527</v>
+        <v>0.4570602377586529</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4451377056104606</v>
+        <v>0.4444550573119765</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4698561337104427</v>
+        <v>0.4691421015377522</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>1246360</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1185310</v>
+        <v>1188091</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1303146</v>
+        <v>1303200</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3634808425252394</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3456767370162988</v>
+        <v>0.3464877104616374</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3800415151230286</v>
+        <v>0.3800572629408524</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2166</v>
@@ -2987,19 +2987,19 @@
         <v>1436611</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1382052</v>
+        <v>1382455</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1488772</v>
+        <v>1491653</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.3963635490495547</v>
+        <v>0.3963635490495546</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3813108466841786</v>
+        <v>0.3814218589125656</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4107550666299179</v>
+        <v>0.4115497755559603</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3439</v>
@@ -3008,19 +3008,19 @@
         <v>2682970</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2606215</v>
+        <v>2601260</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2767941</v>
+        <v>2765223</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3803779505120874</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3694959278879964</v>
+        <v>0.3687935171305626</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3924246075581589</v>
+        <v>0.3920393480274991</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>415527</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>381627</v>
+        <v>380158</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>459441</v>
+        <v>455687</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1211818762553406</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1112955318953957</v>
+        <v>0.110867008387573</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1339886122311739</v>
+        <v>0.1328937678918074</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>959</v>
@@ -3058,19 +3058,19 @@
         <v>572416</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>535040</v>
+        <v>539606</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>607918</v>
+        <v>612085</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1579305460607994</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1476185552727568</v>
+        <v>0.1488783689714945</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1677255910751207</v>
+        <v>0.168875395783231</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1439</v>
@@ -3079,19 +3079,19 @@
         <v>987943</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>933500</v>
+        <v>938128</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1044761</v>
+        <v>1041234</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.140065548182306</v>
+        <v>0.1400655481823061</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1323468462583601</v>
+        <v>0.1330029849632107</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.148120987301396</v>
+        <v>0.1476209046162585</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>76646</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59869</v>
+        <v>59843</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>96196</v>
+        <v>97827</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02235269799236348</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0174596999559217</v>
+        <v>0.01745224711244777</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02805392401934187</v>
+        <v>0.02852958522556351</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>138</v>
@@ -3129,19 +3129,19 @@
         <v>82029</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>68568</v>
+        <v>68017</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>98126</v>
+        <v>96607</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02263208450053211</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01891816456949541</v>
+        <v>0.01876613837579407</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02707316943532368</v>
+        <v>0.02665400349468939</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>224</v>
@@ -3150,19 +3150,19 @@
         <v>158676</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>138161</v>
+        <v>135795</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>185528</v>
+        <v>188901</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02249626354695379</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01958775334357908</v>
+        <v>0.01925226234075989</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0263031816426333</v>
+        <v>0.02678146073997931</v>
       </c>
     </row>
     <row r="38">
